--- a/Data/Model parameters.xlsx
+++ b/Data/Model parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Dropbox\onderzoek\Decision making ENT surgery\Decision-making-ENT-surgery\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Dropbox\onderzoek\Decision-making-ENT-surgery\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="201">
   <si>
     <t>Tx_eff</t>
   </si>
@@ -393,9 +393,6 @@
     <t>NHR</t>
   </si>
   <si>
-    <t>Expert</t>
-  </si>
-  <si>
     <t>Soran A, Ozmen V, Ozbas S, et al. Ann Surg Oncol 2018;25:3141-3149</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>Mikkola R, Kelehaara J, Heikkinnen J et al. World J Surg 2010;34(2):266-71</t>
   </si>
   <si>
-    <t>Lippert H, Lund O, Blegvad S, et al. Eur Respir J 1001;4:324-331</t>
-  </si>
-  <si>
     <t>Rose E, Gelijns A, Moskowitz A, et al. N Engl J Med 2001;345(20):1435-43</t>
   </si>
   <si>
@@ -607,6 +601,33 @@
   </si>
   <si>
     <t>Mild larynx ca., resection</t>
+  </si>
+  <si>
+    <t>Cervical ca., resection</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Oncological</t>
+  </si>
+  <si>
+    <t>Transplantation</t>
+  </si>
+  <si>
+    <t>Cardiothoracic</t>
+  </si>
+  <si>
+    <t>Vascular</t>
+  </si>
+  <si>
+    <t>Lippert H, Lund O, Blegvad S, et al. Eur Respir J 1991;4:324-331</t>
+  </si>
+  <si>
+    <t>Holtzman A, Morris C, Amdur R, et al. Acta Oncologica 2017;56(3):484-489</t>
+  </si>
+  <si>
+    <t>Carotid endarterectomy</t>
   </si>
 </sst>
 </file>
@@ -681,6 +702,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:K273" totalsRowShown="0" headerRowCellStyle="Accent6">
+  <autoFilter ref="A1:K273">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Label"/>
+    <tableColumn id="2" name="Population"/>
+    <tableColumn id="3" name="Intervention"/>
+    <tableColumn id="4" name="Param"/>
+    <tableColumn id="5" name="Unit"/>
+    <tableColumn id="6" name="Med"/>
+    <tableColumn id="7" name="Lo"/>
+    <tableColumn id="8" name="Hi"/>
+    <tableColumn id="9" name="Distribution"/>
+    <tableColumn id="10" name="Source"/>
+    <tableColumn id="11" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,13 +993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K273"/>
+  <dimension ref="A1:M273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E88" sqref="E88:K100"/>
+      <selection pane="bottomRight" activeCell="A186" sqref="A186:A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,10 +1010,10 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -997,8 +1044,11 @@
       <c r="J1" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1022,7 +1072,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1054,7 +1104,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1083,10 +1133,10 @@
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1118,7 +1168,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1150,7 +1200,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1179,10 +1229,13 @@
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1211,10 +1264,10 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1232,7 +1285,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1256,7 +1309,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1288,7 +1341,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -1317,10 +1370,10 @@
         <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1352,7 +1405,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -1384,7 +1437,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1413,10 +1466,13 @@
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1445,10 +1501,10 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -1466,7 +1522,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1490,7 +1546,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1522,7 +1578,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1551,10 +1607,10 @@
         <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1586,7 +1642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1618,7 +1674,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1649,8 +1705,11 @@
       <c r="J23" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1668,7 +1727,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1686,7 +1745,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1710,7 +1769,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1742,7 +1801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1771,10 +1830,10 @@
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1806,7 +1865,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1838,7 +1897,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1867,10 +1926,13 @@
         <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="K31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1899,10 +1961,10 @@
         <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1920,7 +1982,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -1952,7 +2014,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -1984,7 +2046,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -2002,7 +2064,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -2034,7 +2096,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -2066,7 +2128,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -2095,10 +2157,13 @@
         <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="K39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -2127,10 +2192,10 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -2148,15 +2213,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -2172,15 +2237,15 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -2201,18 +2266,18 @@
         <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
         <v>0</v>
@@ -2233,18 +2298,18 @@
         <v>27</v>
       </c>
       <c r="J44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2268,15 +2333,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
@@ -2300,15 +2365,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -2329,18 +2394,21 @@
         <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="K47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -2361,24 +2429,24 @@
         <v>9</v>
       </c>
       <c r="J48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -2402,7 +2470,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2434,7 +2502,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -2463,10 +2531,10 @@
         <v>27</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2498,7 +2566,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2530,7 +2598,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -2559,10 +2627,13 @@
         <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="K55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2591,10 +2662,10 @@
         <v>9</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2612,7 +2683,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2641,10 +2712,10 @@
         <v>9</v>
       </c>
       <c r="J58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -2676,7 +2747,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2694,7 +2765,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2726,7 +2797,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2758,7 +2829,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2787,10 +2858,13 @@
         <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="K63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2819,10 +2893,10 @@
         <v>9</v>
       </c>
       <c r="J64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2840,7 +2914,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2869,10 +2943,10 @@
         <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2901,10 +2975,10 @@
         <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2922,7 +2996,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2954,7 +3028,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2986,7 +3060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -3017,8 +3091,11 @@
       <c r="J71" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3036,7 +3113,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3054,7 +3131,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -3078,7 +3155,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -3110,7 +3187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -3139,10 +3216,10 @@
         <v>27</v>
       </c>
       <c r="J76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -3174,7 +3251,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -3206,7 +3283,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -3235,10 +3312,13 @@
         <v>23</v>
       </c>
       <c r="J79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="K79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -3256,7 +3336,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -3274,7 +3354,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>69</v>
       </c>
@@ -3298,7 +3378,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>69</v>
       </c>
@@ -3330,7 +3410,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -3359,10 +3439,10 @@
         <v>27</v>
       </c>
       <c r="J84" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -3394,7 +3474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -3426,7 +3506,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>69</v>
       </c>
@@ -3455,10 +3535,13 @@
         <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="K87" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -3476,7 +3559,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -3494,12 +3577,12 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
@@ -3518,12 +3601,12 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
         <v>91</v>
@@ -3550,12 +3633,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
         <v>91</v>
@@ -3579,15 +3662,15 @@
         <v>27</v>
       </c>
       <c r="J92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" t="s">
-        <v>192</v>
       </c>
       <c r="C93" t="s">
         <v>91</v>
@@ -3614,12 +3697,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
         <v>91</v>
@@ -3646,12 +3729,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
         <v>91</v>
@@ -3675,15 +3758,18 @@
         <v>23</v>
       </c>
       <c r="J95" t="s">
+        <v>189</v>
+      </c>
+      <c r="K95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>193</v>
-      </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
         <v>91</v>
@@ -3707,15 +3793,15 @@
         <v>9</v>
       </c>
       <c r="J96" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
         <v>91</v>
@@ -3724,7 +3810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -3753,10 +3839,10 @@
         <v>9</v>
       </c>
       <c r="J98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -3788,7 +3874,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -3806,7 +3892,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -3838,7 +3924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -3870,7 +3956,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -3899,10 +3985,13 @@
         <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="K103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3931,10 +4020,10 @@
         <v>9</v>
       </c>
       <c r="J104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -3952,15 +4041,15 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -3976,15 +4065,15 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B107" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
@@ -4008,15 +4097,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D108" t="s">
         <v>0</v>
@@ -4037,18 +4126,18 @@
         <v>27</v>
       </c>
       <c r="J108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>173</v>
-      </c>
-      <c r="B109" t="s">
-        <v>171</v>
-      </c>
       <c r="C109" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -4072,15 +4161,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
@@ -4104,15 +4193,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -4133,18 +4222,21 @@
         <v>23</v>
       </c>
       <c r="J111" t="s">
+        <v>168</v>
+      </c>
+      <c r="K111" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>173</v>
-      </c>
-      <c r="B112" t="s">
-        <v>171</v>
-      </c>
-      <c r="C112" t="s">
-        <v>172</v>
       </c>
       <c r="D112" t="s">
         <v>17</v>
@@ -4165,32 +4257,32 @@
         <v>9</v>
       </c>
       <c r="J112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>173</v>
-      </c>
-      <c r="B113" t="s">
-        <v>171</v>
-      </c>
-      <c r="C113" t="s">
-        <v>172</v>
       </c>
       <c r="D113" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -4206,15 +4298,15 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B115" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C115" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -4235,18 +4327,18 @@
         <v>9</v>
       </c>
       <c r="J115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>177</v>
-      </c>
-      <c r="B116" t="s">
-        <v>175</v>
-      </c>
-      <c r="C116" t="s">
-        <v>176</v>
       </c>
       <c r="D116" t="s">
         <v>0</v>
@@ -4270,15 +4362,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C117" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
@@ -4302,15 +4394,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C118" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D118" t="s">
         <v>16</v>
@@ -4334,15 +4426,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C119" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
@@ -4363,40 +4455,43 @@
         <v>23</v>
       </c>
       <c r="J119" t="s">
+        <v>172</v>
+      </c>
+      <c r="K119" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>177</v>
-      </c>
-      <c r="B120" t="s">
-        <v>175</v>
-      </c>
-      <c r="C120" t="s">
-        <v>176</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
       </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B121" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C121" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
       </c>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>70</v>
       </c>
@@ -4420,7 +4515,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>70</v>
       </c>
@@ -4449,10 +4544,10 @@
         <v>9</v>
       </c>
       <c r="J123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>70</v>
       </c>
@@ -4481,10 +4576,10 @@
         <v>27</v>
       </c>
       <c r="J124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>70</v>
       </c>
@@ -4516,7 +4611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>70</v>
       </c>
@@ -4548,7 +4643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>70</v>
       </c>
@@ -4577,10 +4672,13 @@
         <v>23</v>
       </c>
       <c r="J127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="K127" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -4598,7 +4696,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>70</v>
       </c>
@@ -4616,7 +4714,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>71</v>
       </c>
@@ -4648,7 +4746,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>71</v>
       </c>
@@ -4680,7 +4778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>71</v>
       </c>
@@ -4698,7 +4796,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>71</v>
       </c>
@@ -4730,7 +4828,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>71</v>
       </c>
@@ -4762,7 +4860,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>71</v>
       </c>
@@ -4791,10 +4889,13 @@
         <v>23</v>
       </c>
       <c r="J135" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="K135" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>71</v>
       </c>
@@ -4812,7 +4913,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>71</v>
       </c>
@@ -4826,7 +4927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>72</v>
       </c>
@@ -4855,10 +4956,10 @@
         <v>9</v>
       </c>
       <c r="J138" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>72</v>
       </c>
@@ -4887,10 +4988,10 @@
         <v>9</v>
       </c>
       <c r="J139" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>72</v>
       </c>
@@ -4908,7 +5009,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>72</v>
       </c>
@@ -4940,7 +5041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>72</v>
       </c>
@@ -4972,7 +5073,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>72</v>
       </c>
@@ -5001,10 +5102,13 @@
         <v>23</v>
       </c>
       <c r="J143" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="K143" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>72</v>
       </c>
@@ -5022,7 +5126,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>72</v>
       </c>
@@ -5040,7 +5144,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>77</v>
       </c>
@@ -5064,7 +5168,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>77</v>
       </c>
@@ -5096,7 +5200,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>77</v>
       </c>
@@ -5125,10 +5229,10 @@
         <v>27</v>
       </c>
       <c r="J148" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -5160,7 +5264,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>77</v>
       </c>
@@ -5192,7 +5296,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>77</v>
       </c>
@@ -5223,8 +5327,11 @@
       <c r="J151" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K151" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>77</v>
       </c>
@@ -5242,7 +5349,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>77</v>
       </c>
@@ -5260,7 +5367,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>78</v>
       </c>
@@ -5284,7 +5391,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>78</v>
       </c>
@@ -5316,7 +5423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>78</v>
       </c>
@@ -5345,10 +5452,10 @@
         <v>27</v>
       </c>
       <c r="J156" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>78</v>
       </c>
@@ -5380,7 +5487,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>78</v>
       </c>
@@ -5412,7 +5519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>78</v>
       </c>
@@ -5443,8 +5550,11 @@
       <c r="J159" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>78</v>
       </c>
@@ -5462,7 +5572,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>78</v>
       </c>
@@ -5533,7 +5643,7 @@
         <v>9</v>
       </c>
       <c r="J163" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -5565,7 +5675,7 @@
         <v>27</v>
       </c>
       <c r="J164" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -5663,8 +5773,11 @@
       <c r="J167" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K167" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>79</v>
       </c>
@@ -5682,7 +5795,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>79</v>
       </c>
@@ -5729,7 +5842,7 @@
         <v>9</v>
       </c>
       <c r="J170" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K170" s="1"/>
     </row>
@@ -5762,10 +5875,10 @@
         <v>9</v>
       </c>
       <c r="J171" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>80</v>
       </c>
@@ -5876,10 +5989,13 @@
         <v>23</v>
       </c>
       <c r="J175" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="K175" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>80</v>
       </c>
@@ -5897,7 +6013,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>80</v>
       </c>
@@ -5915,7 +6031,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>81</v>
       </c>
@@ -5944,10 +6060,10 @@
         <v>9</v>
       </c>
       <c r="J178" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>81</v>
       </c>
@@ -5976,10 +6092,10 @@
         <v>9</v>
       </c>
       <c r="J179" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>81</v>
       </c>
@@ -5997,7 +6113,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>81</v>
       </c>
@@ -6029,7 +6145,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>81</v>
       </c>
@@ -6061,7 +6177,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>81</v>
       </c>
@@ -6090,10 +6206,13 @@
         <v>23</v>
       </c>
       <c r="J183" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="K183" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>81</v>
       </c>
@@ -6111,7 +6230,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>81</v>
       </c>
@@ -6129,9 +6248,9 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B186" t="s">
         <v>83</v>
@@ -6158,12 +6277,12 @@
         <v>9</v>
       </c>
       <c r="J186" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B187" t="s">
         <v>83</v>
@@ -6190,10 +6309,10 @@
         <v>9</v>
       </c>
       <c r="J187" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>85</v>
       </c>
@@ -6211,9 +6330,9 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B189" t="s">
         <v>83</v>
@@ -6243,9 +6362,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B190" t="s">
         <v>83</v>
@@ -6275,9 +6394,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B191" t="s">
         <v>83</v>
@@ -6304,10 +6423,13 @@
         <v>23</v>
       </c>
       <c r="J191" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="K191" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>85</v>
       </c>
@@ -6325,9 +6447,9 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B193" t="s">
         <v>83</v>
@@ -6354,10 +6476,10 @@
         <v>9</v>
       </c>
       <c r="J193" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -6381,7 +6503,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -6410,10 +6532,10 @@
         <v>9</v>
       </c>
       <c r="J195" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -6445,7 +6567,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -6477,7 +6599,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -6509,7 +6631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -6538,10 +6660,13 @@
         <v>23</v>
       </c>
       <c r="J199" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="K199" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -6559,7 +6684,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -6577,7 +6702,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>82</v>
       </c>
@@ -6601,7 +6726,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>82</v>
       </c>
@@ -6633,7 +6758,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>82</v>
       </c>
@@ -6665,7 +6790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>82</v>
       </c>
@@ -6697,7 +6822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>82</v>
       </c>
@@ -6729,7 +6854,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>82</v>
       </c>
@@ -6760,8 +6885,11 @@
       <c r="J207" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K207" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>82</v>
       </c>
@@ -6779,7 +6907,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>82</v>
       </c>
@@ -6797,7 +6925,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>92</v>
       </c>
@@ -6826,10 +6954,10 @@
         <v>9</v>
       </c>
       <c r="J210" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>92</v>
       </c>
@@ -6858,10 +6986,10 @@
         <v>9</v>
       </c>
       <c r="J211" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>92</v>
       </c>
@@ -6879,7 +7007,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>92</v>
       </c>
@@ -6911,7 +7039,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>92</v>
       </c>
@@ -6943,7 +7071,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>92</v>
       </c>
@@ -6972,10 +7100,13 @@
         <v>23</v>
       </c>
       <c r="J215" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="K215" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>92</v>
       </c>
@@ -7004,10 +7135,10 @@
         <v>9</v>
       </c>
       <c r="J216" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>92</v>
       </c>
@@ -7025,7 +7156,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>94</v>
       </c>
@@ -7054,10 +7185,10 @@
         <v>9</v>
       </c>
       <c r="J218" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>94</v>
       </c>
@@ -7086,10 +7217,10 @@
         <v>9</v>
       </c>
       <c r="J219" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>94</v>
       </c>
@@ -7107,7 +7238,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>94</v>
       </c>
@@ -7139,7 +7270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>94</v>
       </c>
@@ -7171,7 +7302,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>94</v>
       </c>
@@ -7200,10 +7331,13 @@
         <v>23</v>
       </c>
       <c r="J223" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="K223" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>94</v>
       </c>
@@ -7232,10 +7366,10 @@
         <v>9</v>
       </c>
       <c r="J224" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>94</v>
       </c>
@@ -7253,12 +7387,12 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B226" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C226" t="s">
         <v>91</v>
@@ -7277,12 +7411,12 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B227" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C227" t="s">
         <v>91</v>
@@ -7309,12 +7443,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B228" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C228" t="s">
         <v>91</v>
@@ -7338,15 +7472,15 @@
         <v>27</v>
       </c>
       <c r="J228" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B229" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C229" t="s">
         <v>91</v>
@@ -7373,12 +7507,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B230" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C230" t="s">
         <v>91</v>
@@ -7405,12 +7539,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B231" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C231" t="s">
         <v>91</v>
@@ -7434,15 +7568,18 @@
         <v>23</v>
       </c>
       <c r="J231" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K231" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B232" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C232" t="s">
         <v>91</v>
@@ -7466,15 +7603,15 @@
         <v>9</v>
       </c>
       <c r="J232" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B233" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C233" t="s">
         <v>91</v>
@@ -7483,7 +7620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>98</v>
       </c>
@@ -7512,10 +7649,10 @@
         <v>9</v>
       </c>
       <c r="J234" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>98</v>
       </c>
@@ -7544,10 +7681,10 @@
         <v>9</v>
       </c>
       <c r="J235" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>98</v>
       </c>
@@ -7565,7 +7702,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>98</v>
       </c>
@@ -7597,7 +7734,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>98</v>
       </c>
@@ -7629,7 +7766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>98</v>
       </c>
@@ -7658,10 +7795,13 @@
         <v>23</v>
       </c>
       <c r="J239" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="K239" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>98</v>
       </c>
@@ -7679,7 +7819,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>98</v>
       </c>
@@ -7697,7 +7837,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>100</v>
       </c>
@@ -7721,7 +7861,7 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>100</v>
       </c>
@@ -7750,10 +7890,10 @@
         <v>9</v>
       </c>
       <c r="J243" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>100</v>
       </c>
@@ -7782,10 +7922,10 @@
         <v>27</v>
       </c>
       <c r="J244" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>100</v>
       </c>
@@ -7817,7 +7957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>100</v>
       </c>
@@ -7849,7 +7989,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>100</v>
       </c>
@@ -7878,10 +8018,13 @@
         <v>23</v>
       </c>
       <c r="J247" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="K247" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>100</v>
       </c>
@@ -7899,7 +8042,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>100</v>
       </c>
@@ -7917,9 +8060,9 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B250" t="s">
         <v>99</v>
@@ -7946,12 +8089,12 @@
         <v>9</v>
       </c>
       <c r="J250" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B251" t="s">
         <v>99</v>
@@ -7978,12 +8121,12 @@
         <v>9</v>
       </c>
       <c r="J251" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B252" t="s">
         <v>99</v>
@@ -7999,9 +8142,9 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B253" t="s">
         <v>99</v>
@@ -8031,9 +8174,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B254" t="s">
         <v>99</v>
@@ -8062,10 +8205,14 @@
       <c r="J254" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M254">
+        <f>20/34</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B255" t="s">
         <v>99</v>
@@ -8092,12 +8239,15 @@
         <v>23</v>
       </c>
       <c r="J255" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="K255" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B256" t="s">
         <v>99</v>
@@ -8124,12 +8274,12 @@
         <v>9</v>
       </c>
       <c r="J256" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B257" t="s">
         <v>99</v>
@@ -8141,12 +8291,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B258" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C258" t="s">
         <v>91</v>
@@ -8165,12 +8315,12 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B259" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C259" t="s">
         <v>91</v>
@@ -8197,12 +8347,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B260" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C260" t="s">
         <v>91</v>
@@ -8226,15 +8376,15 @@
         <v>27</v>
       </c>
       <c r="J260" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B261" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C261" t="s">
         <v>91</v>
@@ -8258,15 +8408,15 @@
         <v>9</v>
       </c>
       <c r="J261" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B262" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C262" t="s">
         <v>91</v>
@@ -8293,12 +8443,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C263" t="s">
         <v>91</v>
@@ -8322,15 +8472,18 @@
         <v>23</v>
       </c>
       <c r="J263" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="K263" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B264" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C264" t="s">
         <v>91</v>
@@ -8354,15 +8507,15 @@
         <v>9</v>
       </c>
       <c r="J264" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B265" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C265" t="s">
         <v>91</v>
@@ -8371,15 +8524,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>177</v>
+      </c>
+      <c r="B266" t="s">
+        <v>178</v>
+      </c>
+      <c r="C266" t="s">
         <v>179</v>
-      </c>
-      <c r="B266" t="s">
-        <v>180</v>
-      </c>
-      <c r="C266" t="s">
-        <v>181</v>
       </c>
       <c r="D266" t="s">
         <v>13</v>
@@ -8395,15 +8548,15 @@
         <v>Calculated from tx effect</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
+        <v>177</v>
+      </c>
+      <c r="B267" t="s">
+        <v>178</v>
+      </c>
+      <c r="C267" t="s">
         <v>179</v>
-      </c>
-      <c r="B267" t="s">
-        <v>180</v>
-      </c>
-      <c r="C267" t="s">
-        <v>181</v>
       </c>
       <c r="D267" t="s">
         <v>15</v>
@@ -8427,15 +8580,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>177</v>
+      </c>
+      <c r="B268" t="s">
+        <v>178</v>
+      </c>
+      <c r="C268" t="s">
         <v>179</v>
-      </c>
-      <c r="B268" t="s">
-        <v>180</v>
-      </c>
-      <c r="C268" t="s">
-        <v>181</v>
       </c>
       <c r="D268" t="s">
         <v>0</v>
@@ -8456,18 +8609,18 @@
         <v>27</v>
       </c>
       <c r="J268" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>177</v>
+      </c>
+      <c r="B269" t="s">
+        <v>178</v>
+      </c>
+      <c r="C269" t="s">
         <v>179</v>
-      </c>
-      <c r="B269" t="s">
-        <v>180</v>
-      </c>
-      <c r="C269" t="s">
-        <v>181</v>
       </c>
       <c r="D269" t="s">
         <v>14</v>
@@ -8488,18 +8641,18 @@
         <v>9</v>
       </c>
       <c r="J269" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>177</v>
+      </c>
+      <c r="B270" t="s">
+        <v>178</v>
+      </c>
+      <c r="C270" t="s">
         <v>179</v>
-      </c>
-      <c r="B270" t="s">
-        <v>180</v>
-      </c>
-      <c r="C270" t="s">
-        <v>181</v>
       </c>
       <c r="D270" t="s">
         <v>16</v>
@@ -8523,15 +8676,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
+        <v>177</v>
+      </c>
+      <c r="B271" t="s">
+        <v>178</v>
+      </c>
+      <c r="C271" t="s">
         <v>179</v>
-      </c>
-      <c r="B271" t="s">
-        <v>180</v>
-      </c>
-      <c r="C271" t="s">
-        <v>181</v>
       </c>
       <c r="D271" t="s">
         <v>1</v>
@@ -8552,18 +8705,21 @@
         <v>23</v>
       </c>
       <c r="J271" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="K271" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>177</v>
+      </c>
+      <c r="B272" t="s">
+        <v>178</v>
+      </c>
+      <c r="C272" t="s">
         <v>179</v>
-      </c>
-      <c r="B272" t="s">
-        <v>180</v>
-      </c>
-      <c r="C272" t="s">
-        <v>181</v>
       </c>
       <c r="D272" t="s">
         <v>17</v>
@@ -8584,18 +8740,18 @@
         <v>9</v>
       </c>
       <c r="J272" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>177</v>
+      </c>
+      <c r="B273" t="s">
+        <v>178</v>
+      </c>
+      <c r="C273" t="s">
         <v>179</v>
-      </c>
-      <c r="B273" t="s">
-        <v>180</v>
-      </c>
-      <c r="C273" t="s">
-        <v>181</v>
       </c>
       <c r="D273" t="s">
         <v>18</v>
@@ -8610,6 +8766,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
